--- a/RNN_python/schd_sam_output_data/anom_data5.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data5.xlsx
@@ -427,7 +427,7 @@
         <v>43150</v>
       </c>
       <c r="D2" t="n">
-        <v>19.8484440531617</v>
+        <v>24.69291030137849</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43150.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>19.72069815577123</v>
+        <v>27.76492903134168</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43150.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>30.62691602055372</v>
+        <v>35.46367277413766</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43150.125</v>
       </c>
       <c r="D5" t="n">
-        <v>30.95173569714832</v>
+        <v>42.01753174939709</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43150.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>27.37655138134892</v>
+        <v>41.08111147349408</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43150.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>32.86260141228084</v>
+        <v>28.31515261490377</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43150.25</v>
       </c>
       <c r="D8" t="n">
-        <v>20.10808653210869</v>
+        <v>28.28801501006458</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43150.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>43.88717986949237</v>
+        <v>58.77305523677899</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43150.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>403.8976875102198</v>
+        <v>511.5776244843501</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43150.375</v>
       </c>
       <c r="D11" t="n">
-        <v>421.9006235496948</v>
+        <v>438.8226159575973</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43150.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>457.4211740184705</v>
+        <v>433.919409532082</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43150.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>307.2100819227483</v>
+        <v>303.1453303175623</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43150.5</v>
       </c>
       <c r="D14" t="n">
-        <v>306.6849278445686</v>
+        <v>284.557408771971</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43150.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>254.2236727956</v>
+        <v>251.9734267888129</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43150.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>215.1600154852593</v>
+        <v>221.1615249413711</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43150.625</v>
       </c>
       <c r="D17" t="n">
-        <v>171.9337154559842</v>
+        <v>186.9442177054555</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43150.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>136.355974111271</v>
+        <v>149.7753307868749</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43150.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>101.4101215558798</v>
+        <v>112.3536259556062</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43150.75</v>
       </c>
       <c r="D20" t="n">
-        <v>79.02777970595639</v>
+        <v>78.65820798646294</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43150.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>56.05598122012806</v>
+        <v>52.27700245398722</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43150.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>44.19130781270724</v>
+        <v>34.64797024746062</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43150.875</v>
       </c>
       <c r="D23" t="n">
-        <v>32.26559026681898</v>
+        <v>24.85711920202179</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43150.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>29.74033517018337</v>
+        <v>20.89650317181956</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43150.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>25.84091280232217</v>
+        <v>16.0647627459025</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data5.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data5.xlsx
@@ -424,240 +424,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43150</v>
+        <v>43269</v>
       </c>
       <c r="D2" t="n">
-        <v>24.69291030137849</v>
+        <v>-2.287988126628306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43150.04166666666</v>
+        <v>43269.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>27.76492903134168</v>
+        <v>-0.6807974787137567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43150.08333333334</v>
+        <v>43269.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>35.46367277413766</v>
+        <v>0.8003769021659082</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43150.125</v>
+        <v>43269.125</v>
       </c>
       <c r="D5" t="n">
-        <v>42.01753174939709</v>
+        <v>1.261535059146652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43150.16666666666</v>
+        <v>43269.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>41.08111147349408</v>
+        <v>-1.892033892532723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43150.20833333334</v>
+        <v>43269.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>28.31515261490377</v>
+        <v>-7.750187976872397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43150.25</v>
+        <v>43269.25</v>
       </c>
       <c r="D8" t="n">
-        <v>28.28801501006458</v>
+        <v>-0.1505185853810644</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43150.29166666666</v>
+        <v>43269.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>58.77305523677899</v>
+        <v>50.68849938835304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43150.33333333334</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>511.5776244843501</v>
+        <v>374.2571126806973</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43150.375</v>
+        <v>43269.375</v>
       </c>
       <c r="D11" t="n">
-        <v>438.8226159575973</v>
+        <v>418.2876236714233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43150.41666666666</v>
+        <v>43269.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>433.919409532082</v>
+        <v>409.0931838305647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43150.45833333334</v>
+        <v>43269.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>303.1453303175623</v>
+        <v>267.7886951720488</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43150.5</v>
+        <v>43269.5</v>
       </c>
       <c r="D14" t="n">
-        <v>284.557408771971</v>
+        <v>237.4788495790378</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43150.54166666666</v>
+        <v>43269.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>251.9734267888129</v>
+        <v>168.800780972448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43150.58333333334</v>
+        <v>43269.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>221.1615249413711</v>
+        <v>149.1677534702494</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43150.625</v>
+        <v>43269.625</v>
       </c>
       <c r="D17" t="n">
-        <v>186.9442177054555</v>
+        <v>103.5372898824688</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43150.66666666666</v>
+        <v>43269.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>149.7753307868749</v>
+        <v>75.31030946634104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43150.70833333334</v>
+        <v>43269.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>112.3536259556062</v>
+        <v>51.03201749411097</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43150.75</v>
+        <v>43269.75</v>
       </c>
       <c r="D20" t="n">
-        <v>78.65820798646294</v>
+        <v>34.12806792566684</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43150.79166666666</v>
+        <v>43269.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>52.27700245398722</v>
+        <v>22.44137324062265</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43150.83333333334</v>
+        <v>43269.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>34.64797024746062</v>
+        <v>14.43257487882933</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43150.875</v>
+        <v>43269.875</v>
       </c>
       <c r="D23" t="n">
-        <v>24.85711920202179</v>
+        <v>9.019224983553954</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43150.91666666666</v>
+        <v>43269.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>20.89650317181956</v>
+        <v>5.464428512115944</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43150.95833333334</v>
+        <v>43269.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>16.0647627459025</v>
+        <v>1.776239956075756</v>
       </c>
     </row>
   </sheetData>
@@ -713,240 +713,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43150</v>
+        <v>43269</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43150.04166666666</v>
+        <v>43269.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43150.08333333334</v>
+        <v>43269.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43150.125</v>
+        <v>43269.125</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43150.16666666666</v>
+        <v>43269.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43150.20833333334</v>
+        <v>43269.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43150.25</v>
+        <v>43269.25</v>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43150.29166666666</v>
+        <v>43269.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>104</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43150.33333333334</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>565</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43150.375</v>
+        <v>43269.375</v>
       </c>
       <c r="D11" t="n">
-        <v>418</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43150.41666666666</v>
+        <v>43269.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>525</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43150.45833333334</v>
+        <v>43269.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>385</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43150.5</v>
+        <v>43269.5</v>
       </c>
       <c r="D14" t="n">
-        <v>315</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43150.54166666666</v>
+        <v>43269.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>351</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43150.58333333334</v>
+        <v>43269.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>210</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43150.625</v>
+        <v>43269.625</v>
       </c>
       <c r="D17" t="n">
-        <v>158</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43150.66666666666</v>
+        <v>43269.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43150.70833333334</v>
+        <v>43269.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43150.75</v>
+        <v>43269.75</v>
       </c>
       <c r="D20" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43150.79166666666</v>
+        <v>43269.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43150.83333333334</v>
+        <v>43269.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43150.875</v>
+        <v>43269.875</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43150.91666666666</v>
+        <v>43269.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43150.95833333334</v>
+        <v>43269.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data5.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data5.xlsx
@@ -427,7 +427,7 @@
         <v>43269</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.287988126628306</v>
+        <v>2.225952878900344</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43269.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6807974787137567</v>
+        <v>3.449660358973901</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43269.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8003769021659082</v>
+        <v>5.201145736768254</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43269.125</v>
       </c>
       <c r="D5" t="n">
-        <v>1.261535059146652</v>
+        <v>7.058859843434178</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43269.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.892033892532723</v>
+        <v>7.786827603472943</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43269.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.750187976872397</v>
+        <v>5.513880401621748</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43269.25</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1505185853810644</v>
+        <v>19.06818296241352</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43269.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>50.68849938835304</v>
+        <v>48.22259401658031</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43269.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>374.2571126806973</v>
+        <v>457.407976606037</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43269.375</v>
       </c>
       <c r="D11" t="n">
-        <v>418.2876236714233</v>
+        <v>404.2675679040859</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43269.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>409.0931838305647</v>
+        <v>407.7931408776452</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43269.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>267.7886951720488</v>
+        <v>235.7708900028417</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43269.5</v>
       </c>
       <c r="D14" t="n">
-        <v>237.4788495790378</v>
+        <v>263.5115518222354</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43269.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>168.800780972448</v>
+        <v>184.977195156366</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43269.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>149.1677534702494</v>
+        <v>158.9622711768909</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43269.625</v>
       </c>
       <c r="D17" t="n">
-        <v>103.5372898824688</v>
+        <v>106.1814600749431</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43269.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>75.31030946634104</v>
+        <v>77.41404523965691</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43269.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>51.03201749411097</v>
+        <v>49.93393205634024</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43269.75</v>
       </c>
       <c r="D20" t="n">
-        <v>34.12806792566684</v>
+        <v>33.57388120987463</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43269.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>22.44137324062265</v>
+        <v>22.50257557052878</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43269.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>14.43257487882933</v>
+        <v>15.38609853125661</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43269.875</v>
       </c>
       <c r="D23" t="n">
-        <v>9.019224983553954</v>
+        <v>10.84957226365982</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43269.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5.464428512115944</v>
+        <v>7.962846826843375</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43269.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>1.776239956075756</v>
+        <v>7.826809621458438</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data5.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data5.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43269</v>
+        <v>43152</v>
       </c>
       <c r="D2" t="n">
-        <v>2.225952878900344</v>
+        <v>28.41386500821447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43269.04166666666</v>
+        <v>43152.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>3.449660358973901</v>
+        <v>24.48255135989734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43269.08333333334</v>
+        <v>43152.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5.201145736768254</v>
+        <v>32.40297896927451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43269.125</v>
+        <v>43152.125</v>
       </c>
       <c r="D5" t="n">
-        <v>7.058859843434178</v>
+        <v>42.32723131598529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43269.16666666666</v>
+        <v>43152.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>7.786827603472943</v>
+        <v>42.79367742295328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43269.20833333334</v>
+        <v>43152.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>5.513880401621748</v>
+        <v>22.51195854891562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43269.25</v>
+        <v>43152.25</v>
       </c>
       <c r="D8" t="n">
-        <v>19.06818296241352</v>
+        <v>37.04199786205236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43269.29166666666</v>
+        <v>43152.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>48.22259401658031</v>
+        <v>70.76913104260782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43269.33333333334</v>
+        <v>43152.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>457.407976606037</v>
+        <v>542.5449046415893</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43269.375</v>
+        <v>43152.375</v>
       </c>
       <c r="D11" t="n">
-        <v>404.2675679040859</v>
+        <v>461.7253431273107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43269.41666666666</v>
+        <v>43152.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>407.7931408776452</v>
+        <v>438.3070695529929</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43269.45833333334</v>
+        <v>43152.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>235.7708900028417</v>
+        <v>304.6376926188371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43269.5</v>
+        <v>43152.5</v>
       </c>
       <c r="D14" t="n">
-        <v>263.5115518222354</v>
+        <v>290.6304960832074</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43269.54166666666</v>
+        <v>43152.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>184.977195156366</v>
+        <v>246.9982688776785</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43269.58333333334</v>
+        <v>43152.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>158.9622711768909</v>
+        <v>211.8358650653623</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43269.625</v>
+        <v>43152.625</v>
       </c>
       <c r="D17" t="n">
-        <v>106.1814600749431</v>
+        <v>188.3638208398606</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43269.66666666666</v>
+        <v>43152.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>77.41404523965691</v>
+        <v>153.9961538984275</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43269.70833333334</v>
+        <v>43152.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>49.93393205634024</v>
+        <v>112.5615040184629</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43269.75</v>
+        <v>43152.75</v>
       </c>
       <c r="D20" t="n">
-        <v>33.57388120987463</v>
+        <v>73.19368591102173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43269.79166666666</v>
+        <v>43152.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>22.50257557052878</v>
+        <v>49.37412869231683</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43269.83333333334</v>
+        <v>43152.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>15.38609853125661</v>
+        <v>37.67535654792223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43269.875</v>
+        <v>43152.875</v>
       </c>
       <c r="D23" t="n">
-        <v>10.84957226365982</v>
+        <v>32.81177349379935</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43269.91666666666</v>
+        <v>43152.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>7.962846826843375</v>
+        <v>31.48925437271966</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43269.95833333334</v>
+        <v>43152.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7.826809621458438</v>
+        <v>21.98738678167398</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43269</v>
+        <v>43152</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43269.04166666666</v>
+        <v>43152.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43269.08333333334</v>
+        <v>43152.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43269.125</v>
+        <v>43152.125</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43269.16666666666</v>
+        <v>43152.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43269.20833333334</v>
+        <v>43152.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43269.25</v>
+        <v>43152.25</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43269.29166666666</v>
+        <v>43152.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43269.33333333334</v>
+        <v>43152.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>163</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43269.375</v>
+        <v>43152.375</v>
       </c>
       <c r="D11" t="n">
-        <v>199</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43269.41666666666</v>
+        <v>43152.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>173</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43269.45833333334</v>
+        <v>43152.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>99</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43269.5</v>
+        <v>43152.5</v>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43269.54166666666</v>
+        <v>43152.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43269.58333333334</v>
+        <v>43152.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43269.625</v>
+        <v>43152.625</v>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43269.66666666666</v>
+        <v>43152.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43269.70833333334</v>
+        <v>43152.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43269.75</v>
+        <v>43152.75</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43269.79166666666</v>
+        <v>43152.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43269.83333333334</v>
+        <v>43152.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43269.875</v>
+        <v>43152.875</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43269.91666666666</v>
+        <v>43152.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43269.95833333334</v>
+        <v>43152.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data5.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data5.xlsx
@@ -424,240 +424,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43152</v>
+        <v>43110</v>
       </c>
       <c r="D2" t="n">
-        <v>28.41386500821447</v>
+        <v>-0.1433270099415438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43152.04166666666</v>
+        <v>43110.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>24.48255135989734</v>
+        <v>7.312989076362769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43152.08333333334</v>
+        <v>43110.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>32.40297896927451</v>
+        <v>9.728546999028836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43152.125</v>
+        <v>43110.125</v>
       </c>
       <c r="D5" t="n">
-        <v>42.32723131598529</v>
+        <v>11.79762980014259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43152.16666666666</v>
+        <v>43110.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>42.79367742295328</v>
+        <v>15.47697274482708</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43152.20833333334</v>
+        <v>43110.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>22.51195854891562</v>
+        <v>11.58563957949693</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43152.25</v>
+        <v>43110.25</v>
       </c>
       <c r="D8" t="n">
-        <v>37.04199786205236</v>
+        <v>8.383248043520922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43152.29166666666</v>
+        <v>43110.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>70.76913104260782</v>
+        <v>23.86597871904833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43152.33333333334</v>
+        <v>43110.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>542.5449046415893</v>
+        <v>377.940442060121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43152.375</v>
+        <v>43110.375</v>
       </c>
       <c r="D11" t="n">
-        <v>461.7253431273107</v>
+        <v>357.5176675962252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43152.41666666666</v>
+        <v>43110.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>438.3070695529929</v>
+        <v>451.397929080647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43152.45833333334</v>
+        <v>43110.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>304.6376926188371</v>
+        <v>280.0106462415794</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43152.5</v>
+        <v>43110.5</v>
       </c>
       <c r="D14" t="n">
-        <v>290.6304960832074</v>
+        <v>278.1702507645088</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43152.54166666666</v>
+        <v>43110.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>246.9982688776785</v>
+        <v>231.7024901581486</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43152.58333333334</v>
+        <v>43110.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>211.8358650653623</v>
+        <v>185.7820771264622</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43152.625</v>
+        <v>43110.625</v>
       </c>
       <c r="D17" t="n">
-        <v>188.3638208398606</v>
+        <v>135.3150575651733</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43152.66666666666</v>
+        <v>43110.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>153.9961538984275</v>
+        <v>125.1152656575409</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43152.70833333334</v>
+        <v>43110.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>112.5615040184629</v>
+        <v>84.58229554518252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43152.75</v>
+        <v>43110.75</v>
       </c>
       <c r="D20" t="n">
-        <v>73.19368591102173</v>
+        <v>62.89428395938935</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43152.79166666666</v>
+        <v>43110.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>49.37412869231683</v>
+        <v>37.17038777833902</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43152.83333333334</v>
+        <v>43110.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>37.67535654792223</v>
+        <v>24.54366350652356</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43152.875</v>
+        <v>43110.875</v>
       </c>
       <c r="D23" t="n">
-        <v>32.81177349379935</v>
+        <v>13.63202871827629</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43152.91666666666</v>
+        <v>43110.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>31.48925437271966</v>
+        <v>9.386489533446436</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43152.95833333334</v>
+        <v>43110.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>21.98738678167398</v>
+        <v>9.4753744077302</v>
       </c>
     </row>
   </sheetData>
@@ -713,240 +713,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43152</v>
+        <v>43110</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43152.04166666666</v>
+        <v>43110.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43152.08333333334</v>
+        <v>43110.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43152.125</v>
+        <v>43110.125</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43152.16666666666</v>
+        <v>43110.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43152.20833333334</v>
+        <v>43110.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43152.25</v>
+        <v>43110.25</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43152.29166666666</v>
+        <v>43110.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43152.33333333334</v>
+        <v>43110.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43152.375</v>
+        <v>43110.375</v>
       </c>
       <c r="D11" t="n">
-        <v>344</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43152.41666666666</v>
+        <v>43110.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>408</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43152.45833333334</v>
+        <v>43110.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>279</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43152.5</v>
+        <v>43110.5</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43152.54166666666</v>
+        <v>43110.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>170</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43152.58333333334</v>
+        <v>43110.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>150</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43152.625</v>
+        <v>43110.625</v>
       </c>
       <c r="D17" t="n">
-        <v>116</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43152.66666666666</v>
+        <v>43110.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43152.70833333334</v>
+        <v>43110.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43152.75</v>
+        <v>43110.75</v>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43152.79166666666</v>
+        <v>43110.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43152.83333333334</v>
+        <v>43110.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43152.875</v>
+        <v>43110.875</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43152.91666666666</v>
+        <v>43110.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43152.95833333334</v>
+        <v>43110.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
